--- a/Homework_3/Registration_Form_Expekt_Olga_Rymarchuk.xlsx
+++ b/Homework_3/Registration_Form_Expekt_Olga_Rymarchuk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="19095" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="19095" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BRD" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="306">
   <si>
     <t>BUSINESS REQUIREMENTS DOCUMENT</t>
   </si>
@@ -841,6 +841,102 @@
   </si>
   <si>
     <t>Jacke123568</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>Albert</t>
+  </si>
+  <si>
+    <t>Einstein</t>
+  </si>
+  <si>
+    <t>Большой дом</t>
+  </si>
+  <si>
+    <t>600-ricchya st.</t>
+  </si>
+  <si>
+    <t>$%&amp;*)</t>
+  </si>
+  <si>
+    <t>Vinnitska oblast'</t>
+  </si>
+  <si>
+    <t>*()^$*</t>
+  </si>
+  <si>
+    <t>Vinnitsya</t>
+  </si>
+  <si>
+    <t>!*$%^</t>
+  </si>
+  <si>
+    <t>[void]</t>
+  </si>
+  <si>
+    <t>%^*)</t>
+  </si>
+  <si>
+    <t>30/July/1950</t>
+  </si>
+  <si>
+    <t>Nokia</t>
+  </si>
+  <si>
+    <t>Альберт</t>
+  </si>
+  <si>
+    <t>Albert12</t>
+  </si>
+  <si>
+    <t>Einie1</t>
+  </si>
+  <si>
+    <t>Albert@gmail.com</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>AlbertGmail.com</t>
+  </si>
+  <si>
+    <t>three meters at sky level</t>
+  </si>
+  <si>
+    <t>The name field must not exceed 25 characters, surname 45 characters, but not less than 1 character</t>
+  </si>
+  <si>
+    <t>8 Registration Fields: First Name Last Name</t>
+  </si>
+  <si>
+    <t>To register in the fields name and surname, be sure to enter the data</t>
+  </si>
+  <si>
+    <t>Check input fields, if you enter numbers, other numbers</t>
+  </si>
+  <si>
+    <t>Check input fields if spaces are required</t>
+  </si>
+  <si>
+    <t>Check the input fields if you enter the name in English, and the surname in Russian, or vice versa</t>
+  </si>
+  <si>
+    <t>8.1.1</t>
+  </si>
+  <si>
+    <t>8.1.2</t>
+  </si>
+  <si>
+    <t>8.1.3</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1195,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1180,9 +1276,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1190,29 +1283,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1239,19 +1329,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1265,6 +1352,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1568,10 +1673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1586,14 +1691,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1614,15 +1719,15 @@
       <c r="F4" s="53"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
     </row>
     <row r="7" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
@@ -1640,14 +1745,14 @@
       <c r="K7" s="53"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
     </row>
     <row r="10" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
@@ -1759,19 +1864,37 @@
       <c r="E25" s="53"/>
       <c r="F25" s="53"/>
     </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A22:F22"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:K7"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1780,10 +1903,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:I18"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1793,14 +1916,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1823,15 +1946,15 @@
       <c r="H4" s="53"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -1891,14 +2014,14 @@
       <c r="H14" s="53"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -2002,16 +2125,16 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -2118,23 +2241,49 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>47</v>
       </c>
     </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="55"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A11:H11"/>
     <mergeCell ref="A45:H45"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A16:F16"/>
@@ -2147,11 +2296,6 @@
     <mergeCell ref="A37:H37"/>
     <mergeCell ref="A39:H39"/>
     <mergeCell ref="A43:H43"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A11:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2161,8 +2305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2431,19 +2575,38 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="A22" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="D22" s="82" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D23" s="82" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D24" s="82" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
@@ -2710,46 +2873,46 @@
       <c r="D16" s="13"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="70"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="68"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="70"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="39"/>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="70"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="39"/>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="70"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="39"/>
@@ -2763,11 +2926,11 @@
       <c r="A24" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="75"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="60"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="40" t="s">
@@ -2789,21 +2952,21 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="41"/>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="60"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="72"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="70"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="40" t="s">
@@ -2916,46 +3079,46 @@
       <c r="D37" s="22"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="63" t="s">
+      <c r="A39" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="76"/>
-      <c r="D39" s="77"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="74"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="64"/>
-      <c r="B40" s="78"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="79"/>
+      <c r="A40" s="62"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="76"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="61" t="s">
+      <c r="B41" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="61"/>
-      <c r="D41" s="62"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="70"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="39"/>
-      <c r="B42" s="61" t="s">
+      <c r="B42" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="61"/>
-      <c r="D42" s="62"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="70"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="39"/>
-      <c r="B43" s="61" t="s">
+      <c r="B43" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="61"/>
-      <c r="D43" s="62"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="70"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="39"/>
@@ -2969,11 +3132,11 @@
       <c r="A45" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="B45" s="74" t="s">
+      <c r="B45" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="C45" s="74"/>
-      <c r="D45" s="75"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="60"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="40" t="s">
@@ -2995,21 +3158,21 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
-      <c r="B48" s="59" t="s">
+      <c r="B48" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="59"/>
-      <c r="D48" s="60"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="72"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="B49" s="61" t="s">
+      <c r="B49" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="62"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="70"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="40" t="s">
@@ -3098,46 +3261,46 @@
       <c r="D56" s="22"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="63" t="s">
+      <c r="A58" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="B58" s="65" t="s">
+      <c r="B58" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="C58" s="66"/>
-      <c r="D58" s="67"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="65"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="64"/>
-      <c r="B59" s="68"/>
-      <c r="C59" s="69"/>
-      <c r="D59" s="70"/>
+      <c r="A59" s="62"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="68"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="B60" s="61" t="s">
+      <c r="B60" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="C60" s="61"/>
-      <c r="D60" s="62"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="70"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="39"/>
-      <c r="B61" s="61" t="s">
+      <c r="B61" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="C61" s="61"/>
-      <c r="D61" s="62"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="70"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="39"/>
-      <c r="B62" s="61" t="s">
+      <c r="B62" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="C62" s="61"/>
-      <c r="D62" s="62"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="70"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="39"/>
@@ -3151,11 +3314,11 @@
       <c r="A64" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="B64" s="74" t="s">
+      <c r="B64" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="C64" s="74"/>
-      <c r="D64" s="75"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="60"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="40" t="s">
@@ -3177,21 +3340,21 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="41"/>
-      <c r="B67" s="59" t="s">
+      <c r="B67" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="C67" s="59"/>
-      <c r="D67" s="60"/>
+      <c r="C67" s="71"/>
+      <c r="D67" s="72"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="B68" s="61" t="s">
+      <c r="B68" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="C68" s="61"/>
-      <c r="D68" s="62"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="70"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="40" t="s">
@@ -3316,46 +3479,46 @@
       <c r="D78" s="13"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="63" t="s">
+      <c r="A80" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="65" t="s">
+      <c r="B80" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="C80" s="66"/>
-      <c r="D80" s="67"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="65"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="64"/>
-      <c r="B81" s="68"/>
-      <c r="C81" s="69"/>
-      <c r="D81" s="70"/>
+      <c r="A81" s="62"/>
+      <c r="B81" s="66"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="68"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="B82" s="61" t="s">
+      <c r="B82" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="C82" s="61"/>
-      <c r="D82" s="62"/>
+      <c r="C82" s="69"/>
+      <c r="D82" s="70"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="39"/>
-      <c r="B83" s="61" t="s">
+      <c r="B83" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="C83" s="61"/>
-      <c r="D83" s="62"/>
+      <c r="C83" s="69"/>
+      <c r="D83" s="70"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="39"/>
-      <c r="B84" s="61" t="s">
+      <c r="B84" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="C84" s="61"/>
-      <c r="D84" s="62"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="70"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="39"/>
@@ -3369,11 +3532,11 @@
       <c r="A86" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="B86" s="74" t="s">
+      <c r="B86" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="C86" s="74"/>
-      <c r="D86" s="75"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="60"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="40" t="s">
@@ -3395,21 +3558,21 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="41"/>
-      <c r="B89" s="59" t="s">
+      <c r="B89" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="C89" s="59"/>
-      <c r="D89" s="60"/>
+      <c r="C89" s="71"/>
+      <c r="D89" s="72"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="B90" s="61" t="s">
+      <c r="B90" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="C90" s="61"/>
-      <c r="D90" s="62"/>
+      <c r="C90" s="69"/>
+      <c r="D90" s="70"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="40" t="s">
@@ -3462,46 +3625,46 @@
       <c r="D94" s="22"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="63" t="s">
+      <c r="A96" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="B96" s="65" t="s">
+      <c r="B96" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="C96" s="66"/>
-      <c r="D96" s="67"/>
+      <c r="C96" s="64"/>
+      <c r="D96" s="65"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="64"/>
-      <c r="B97" s="68"/>
-      <c r="C97" s="69"/>
-      <c r="D97" s="70"/>
+      <c r="A97" s="62"/>
+      <c r="B97" s="66"/>
+      <c r="C97" s="67"/>
+      <c r="D97" s="68"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="61" t="s">
+      <c r="B98" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="C98" s="61"/>
-      <c r="D98" s="62"/>
+      <c r="C98" s="69"/>
+      <c r="D98" s="70"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="39"/>
-      <c r="B99" s="61" t="s">
+      <c r="B99" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="C99" s="61"/>
-      <c r="D99" s="62"/>
+      <c r="C99" s="69"/>
+      <c r="D99" s="70"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="39"/>
-      <c r="B100" s="61" t="s">
+      <c r="B100" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="C100" s="61"/>
-      <c r="D100" s="62"/>
+      <c r="C100" s="69"/>
+      <c r="D100" s="70"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="39"/>
@@ -3515,11 +3678,11 @@
       <c r="A102" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="B102" s="74" t="s">
+      <c r="B102" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="C102" s="74"/>
-      <c r="D102" s="75"/>
+      <c r="C102" s="59"/>
+      <c r="D102" s="60"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="40" t="s">
@@ -3541,21 +3704,21 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="41"/>
-      <c r="B105" s="59" t="s">
+      <c r="B105" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="C105" s="59"/>
-      <c r="D105" s="60"/>
+      <c r="C105" s="71"/>
+      <c r="D105" s="72"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="B106" s="61" t="s">
+      <c r="B106" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="C106" s="61"/>
-      <c r="D106" s="62"/>
+      <c r="C106" s="69"/>
+      <c r="D106" s="70"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="40" t="s">
@@ -3608,46 +3771,46 @@
       <c r="D110" s="22"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="63" t="s">
+      <c r="A112" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="B112" s="65" t="s">
+      <c r="B112" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="C112" s="66"/>
-      <c r="D112" s="67"/>
+      <c r="C112" s="64"/>
+      <c r="D112" s="65"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="64"/>
-      <c r="B113" s="68"/>
-      <c r="C113" s="69"/>
-      <c r="D113" s="70"/>
+      <c r="A113" s="62"/>
+      <c r="B113" s="66"/>
+      <c r="C113" s="67"/>
+      <c r="D113" s="68"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="B114" s="61" t="s">
+      <c r="B114" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="C114" s="61"/>
-      <c r="D114" s="62"/>
+      <c r="C114" s="69"/>
+      <c r="D114" s="70"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="39"/>
-      <c r="B115" s="61" t="s">
+      <c r="B115" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="C115" s="61"/>
-      <c r="D115" s="62"/>
+      <c r="C115" s="69"/>
+      <c r="D115" s="70"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="39"/>
-      <c r="B116" s="61" t="s">
+      <c r="B116" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="C116" s="61"/>
-      <c r="D116" s="62"/>
+      <c r="C116" s="69"/>
+      <c r="D116" s="70"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="39"/>
@@ -3661,11 +3824,11 @@
       <c r="A118" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="B118" s="74" t="s">
+      <c r="B118" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="C118" s="74"/>
-      <c r="D118" s="75"/>
+      <c r="C118" s="59"/>
+      <c r="D118" s="60"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="40" t="s">
@@ -3687,21 +3850,21 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="41"/>
-      <c r="B121" s="59" t="s">
+      <c r="B121" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="C121" s="59"/>
-      <c r="D121" s="60"/>
+      <c r="C121" s="71"/>
+      <c r="D121" s="72"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="B122" s="61" t="s">
+      <c r="B122" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="C122" s="61"/>
-      <c r="D122" s="62"/>
+      <c r="C122" s="69"/>
+      <c r="D122" s="70"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="40" t="s">
@@ -3754,46 +3917,46 @@
       <c r="D126" s="22"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="63" t="s">
+      <c r="A128" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="B128" s="65" t="s">
+      <c r="B128" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="C128" s="66"/>
-      <c r="D128" s="67"/>
+      <c r="C128" s="64"/>
+      <c r="D128" s="65"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="64"/>
-      <c r="B129" s="68"/>
-      <c r="C129" s="69"/>
-      <c r="D129" s="70"/>
+      <c r="A129" s="62"/>
+      <c r="B129" s="66"/>
+      <c r="C129" s="67"/>
+      <c r="D129" s="68"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="B130" s="61" t="s">
+      <c r="B130" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="C130" s="61"/>
-      <c r="D130" s="62"/>
+      <c r="C130" s="69"/>
+      <c r="D130" s="70"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="39"/>
-      <c r="B131" s="61" t="s">
+      <c r="B131" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="C131" s="61"/>
-      <c r="D131" s="62"/>
+      <c r="C131" s="69"/>
+      <c r="D131" s="70"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="39"/>
-      <c r="B132" s="61" t="s">
+      <c r="B132" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="C132" s="61"/>
-      <c r="D132" s="62"/>
+      <c r="C132" s="69"/>
+      <c r="D132" s="70"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="39"/>
@@ -3807,11 +3970,11 @@
       <c r="A134" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="B134" s="74" t="s">
+      <c r="B134" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="C134" s="74"/>
-      <c r="D134" s="75"/>
+      <c r="C134" s="59"/>
+      <c r="D134" s="60"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="40" t="s">
@@ -3833,21 +3996,21 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="41"/>
-      <c r="B137" s="59" t="s">
+      <c r="B137" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="C137" s="59"/>
-      <c r="D137" s="60"/>
+      <c r="C137" s="71"/>
+      <c r="D137" s="72"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="B138" s="61" t="s">
+      <c r="B138" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="C138" s="61"/>
-      <c r="D138" s="62"/>
+      <c r="C138" s="69"/>
+      <c r="D138" s="70"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="40" t="s">
@@ -3912,46 +4075,46 @@
       <c r="D143" s="22"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="63" t="s">
+      <c r="A145" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="B145" s="65" t="s">
+      <c r="B145" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="C145" s="66"/>
-      <c r="D145" s="67"/>
+      <c r="C145" s="64"/>
+      <c r="D145" s="65"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="64"/>
-      <c r="B146" s="68"/>
-      <c r="C146" s="69"/>
-      <c r="D146" s="70"/>
+      <c r="A146" s="62"/>
+      <c r="B146" s="66"/>
+      <c r="C146" s="67"/>
+      <c r="D146" s="68"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="B147" s="61" t="s">
+      <c r="B147" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="C147" s="61"/>
-      <c r="D147" s="62"/>
+      <c r="C147" s="69"/>
+      <c r="D147" s="70"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="39"/>
-      <c r="B148" s="61" t="s">
+      <c r="B148" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="C148" s="61"/>
-      <c r="D148" s="62"/>
+      <c r="C148" s="69"/>
+      <c r="D148" s="70"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="39"/>
-      <c r="B149" s="61" t="s">
+      <c r="B149" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="C149" s="61"/>
-      <c r="D149" s="62"/>
+      <c r="C149" s="69"/>
+      <c r="D149" s="70"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="39"/>
@@ -3965,11 +4128,11 @@
       <c r="A151" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="B151" s="74" t="s">
+      <c r="B151" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="C151" s="74"/>
-      <c r="D151" s="75"/>
+      <c r="C151" s="59"/>
+      <c r="D151" s="60"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="40" t="s">
@@ -3991,21 +4154,21 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="41"/>
-      <c r="B154" s="59" t="s">
+      <c r="B154" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="C154" s="59"/>
-      <c r="D154" s="60"/>
+      <c r="C154" s="71"/>
+      <c r="D154" s="72"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="B155" s="61" t="s">
+      <c r="B155" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="C155" s="61"/>
-      <c r="D155" s="62"/>
+      <c r="C155" s="69"/>
+      <c r="D155" s="70"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="40" t="s">
@@ -4082,46 +4245,46 @@
       <c r="D161" s="22"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="63" t="s">
+      <c r="A163" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="B163" s="65" t="s">
+      <c r="B163" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="C163" s="66"/>
-      <c r="D163" s="67"/>
+      <c r="C163" s="64"/>
+      <c r="D163" s="65"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="64"/>
-      <c r="B164" s="68"/>
-      <c r="C164" s="69"/>
-      <c r="D164" s="70"/>
+      <c r="A164" s="62"/>
+      <c r="B164" s="66"/>
+      <c r="C164" s="67"/>
+      <c r="D164" s="68"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="B165" s="61" t="s">
+      <c r="B165" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="C165" s="61"/>
-      <c r="D165" s="62"/>
+      <c r="C165" s="69"/>
+      <c r="D165" s="70"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="39"/>
-      <c r="B166" s="61" t="s">
+      <c r="B166" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="C166" s="61"/>
-      <c r="D166" s="62"/>
+      <c r="C166" s="69"/>
+      <c r="D166" s="70"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="39"/>
-      <c r="B167" s="61" t="s">
+      <c r="B167" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="C167" s="61"/>
-      <c r="D167" s="62"/>
+      <c r="C167" s="69"/>
+      <c r="D167" s="70"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="39"/>
@@ -4135,11 +4298,11 @@
       <c r="A169" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="B169" s="74" t="s">
+      <c r="B169" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="C169" s="74"/>
-      <c r="D169" s="75"/>
+      <c r="C169" s="59"/>
+      <c r="D169" s="60"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="40" t="s">
@@ -4161,21 +4324,21 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="41"/>
-      <c r="B172" s="59" t="s">
+      <c r="B172" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="C172" s="59"/>
-      <c r="D172" s="60"/>
+      <c r="C172" s="71"/>
+      <c r="D172" s="72"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="B173" s="61" t="s">
+      <c r="B173" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="C173" s="61"/>
-      <c r="D173" s="62"/>
+      <c r="C173" s="69"/>
+      <c r="D173" s="70"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="40" t="s">
@@ -4252,46 +4415,46 @@
       <c r="D179" s="22"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="63" t="s">
+      <c r="A181" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="B181" s="65" t="s">
+      <c r="B181" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="C181" s="66"/>
-      <c r="D181" s="67"/>
+      <c r="C181" s="64"/>
+      <c r="D181" s="65"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="64"/>
-      <c r="B182" s="68"/>
-      <c r="C182" s="69"/>
-      <c r="D182" s="70"/>
+      <c r="A182" s="62"/>
+      <c r="B182" s="66"/>
+      <c r="C182" s="67"/>
+      <c r="D182" s="68"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="B183" s="61" t="s">
+      <c r="B183" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="C183" s="61"/>
-      <c r="D183" s="62"/>
+      <c r="C183" s="69"/>
+      <c r="D183" s="70"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="39"/>
-      <c r="B184" s="61" t="s">
+      <c r="B184" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="C184" s="61"/>
-      <c r="D184" s="62"/>
+      <c r="C184" s="69"/>
+      <c r="D184" s="70"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="39"/>
-      <c r="B185" s="61" t="s">
+      <c r="B185" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="C185" s="61"/>
-      <c r="D185" s="62"/>
+      <c r="C185" s="69"/>
+      <c r="D185" s="70"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="39"/>
@@ -4305,11 +4468,11 @@
       <c r="A187" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="B187" s="71" t="s">
+      <c r="B187" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="C187" s="72"/>
-      <c r="D187" s="73"/>
+      <c r="C187" s="78"/>
+      <c r="D187" s="79"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="40" t="s">
@@ -4331,21 +4494,21 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="41"/>
-      <c r="B190" s="59" t="s">
+      <c r="B190" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="C190" s="59"/>
-      <c r="D190" s="60"/>
+      <c r="C190" s="71"/>
+      <c r="D190" s="72"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="B191" s="61" t="s">
+      <c r="B191" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="C191" s="61"/>
-      <c r="D191" s="62"/>
+      <c r="C191" s="69"/>
+      <c r="D191" s="70"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="40" t="s">
@@ -4387,30 +4550,50 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:D59"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B190:D190"/>
+    <mergeCell ref="B191:D191"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:D182"/>
+    <mergeCell ref="B183:D183"/>
+    <mergeCell ref="B184:D184"/>
+    <mergeCell ref="B185:D185"/>
+    <mergeCell ref="B187:D187"/>
+    <mergeCell ref="B173:D173"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="B151:D151"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="B155:D155"/>
+    <mergeCell ref="B165:D165"/>
+    <mergeCell ref="B166:D166"/>
+    <mergeCell ref="B167:D167"/>
+    <mergeCell ref="B169:D169"/>
+    <mergeCell ref="B172:D172"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:D164"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="B138:D138"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:D146"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="B148:D148"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="B128:D129"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:D113"/>
     <mergeCell ref="B99:D99"/>
     <mergeCell ref="A80:A81"/>
     <mergeCell ref="B80:D81"/>
@@ -4423,50 +4606,30 @@
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="B96:D97"/>
     <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:D113"/>
-    <mergeCell ref="B134:D134"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B122:D122"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="B128:D129"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B131:D131"/>
-    <mergeCell ref="B132:D132"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:D164"/>
-    <mergeCell ref="B137:D137"/>
-    <mergeCell ref="B138:D138"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:D146"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="B148:D148"/>
-    <mergeCell ref="B173:D173"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="B151:D151"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="B155:D155"/>
-    <mergeCell ref="B165:D165"/>
-    <mergeCell ref="B166:D166"/>
-    <mergeCell ref="B167:D167"/>
-    <mergeCell ref="B169:D169"/>
-    <mergeCell ref="B172:D172"/>
-    <mergeCell ref="B190:D190"/>
-    <mergeCell ref="B191:D191"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:D182"/>
-    <mergeCell ref="B183:D183"/>
-    <mergeCell ref="B184:D184"/>
-    <mergeCell ref="B185:D185"/>
-    <mergeCell ref="B187:D187"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:D59"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4475,10 +4638,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4494,9 +4657,19 @@
     <col min="9" max="9" width="17.5703125" customWidth="1"/>
     <col min="10" max="10" width="19.7109375" customWidth="1"/>
     <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="25" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" customWidth="1"/>
+    <col min="16" max="16" width="23.7109375" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" customWidth="1"/>
+    <col min="18" max="18" width="21.28515625" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" customWidth="1"/>
+    <col min="20" max="20" width="21.28515625" customWidth="1"/>
+    <col min="21" max="21" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>185</v>
       </c>
@@ -4530,8 +4703,39 @@
       <c r="K1" s="7" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="V1" s="52"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>186</v>
       </c>
@@ -4565,8 +4769,39 @@
       <c r="K2" s="48" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="M2" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="N2" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="O2" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="P2" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q2" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="R2" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="S2" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="T2" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="U2" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="V2" s="52"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>187</v>
       </c>
@@ -4600,8 +4835,39 @@
       <c r="K3" s="48" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="48">
+        <v>123456</v>
+      </c>
+      <c r="M3" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="N3" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="O3" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="P3" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q3" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="R3" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="S3" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="T3" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="U3" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="V3" s="52"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>188</v>
       </c>
@@ -4635,8 +4901,39 @@
       <c r="K4" s="48" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="48">
+        <v>7890</v>
+      </c>
+      <c r="M4" s="48">
+        <v>7890</v>
+      </c>
+      <c r="N4" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="O4" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="P4" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q4" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="R4" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="S4" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="T4" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="U4" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="V4" s="52"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
         <v>189</v>
       </c>
@@ -4670,8 +4967,39 @@
       <c r="K5" s="48">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="48">
+        <v>42</v>
+      </c>
+      <c r="M5" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="N5" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="O5" s="48">
+        <v>42</v>
+      </c>
+      <c r="P5" s="48">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="48">
+        <v>42</v>
+      </c>
+      <c r="R5" s="48">
+        <v>42</v>
+      </c>
+      <c r="S5" s="48">
+        <v>42</v>
+      </c>
+      <c r="T5" s="48">
+        <v>42</v>
+      </c>
+      <c r="U5" s="48">
+        <v>42</v>
+      </c>
+      <c r="V5" s="52"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
         <v>190</v>
       </c>
@@ -4705,8 +5033,39 @@
       <c r="K6" s="48" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="M6" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="N6" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="O6" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="P6" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q6" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="R6" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="S6" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="T6" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="U6" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="V6" s="52"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
         <v>191</v>
       </c>
@@ -4724,8 +5083,39 @@
       <c r="K7" s="48" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="48" t="s">
+        <v>280</v>
+      </c>
+      <c r="M7" s="48" t="s">
+        <v>280</v>
+      </c>
+      <c r="N7" s="48" t="s">
+        <v>280</v>
+      </c>
+      <c r="O7" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="P7" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q7" s="48" t="s">
+        <v>280</v>
+      </c>
+      <c r="R7" s="48" t="s">
+        <v>280</v>
+      </c>
+      <c r="S7" s="48" t="s">
+        <v>280</v>
+      </c>
+      <c r="T7" s="48" t="s">
+        <v>280</v>
+      </c>
+      <c r="U7" s="48" t="s">
+        <v>280</v>
+      </c>
+      <c r="V7" s="52"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
         <v>192</v>
       </c>
@@ -4759,8 +5149,39 @@
       <c r="K8" s="48" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="M8" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="N8" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="O8" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="P8" s="48" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q8" s="48" t="s">
+        <v>283</v>
+      </c>
+      <c r="R8" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="S8" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="T8" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="U8" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="V8" s="52"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
         <v>193</v>
       </c>
@@ -4780,8 +5201,25 @@
       <c r="K9" s="48" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="T9" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="U9" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="V9" s="52"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>194</v>
       </c>
@@ -4815,8 +5253,39 @@
       <c r="K10" s="9" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="48">
+        <v>21001</v>
+      </c>
+      <c r="M10" s="48">
+        <v>21001</v>
+      </c>
+      <c r="N10" s="48">
+        <v>21001</v>
+      </c>
+      <c r="O10" s="48">
+        <v>21001</v>
+      </c>
+      <c r="P10" s="48">
+        <v>21001</v>
+      </c>
+      <c r="Q10" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="R10" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="S10" s="48">
+        <v>21001</v>
+      </c>
+      <c r="T10" s="48">
+        <v>21001</v>
+      </c>
+      <c r="U10" s="48">
+        <v>21001</v>
+      </c>
+      <c r="V10" s="52"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
         <v>195</v>
       </c>
@@ -4850,8 +5319,39 @@
       <c r="K11" s="48" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="M11" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="N11" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="O11" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="P11" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q11" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="R11" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="S11" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="T11" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="U11" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="V11" s="52"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
         <v>196</v>
       </c>
@@ -4885,8 +5385,39 @@
       <c r="K12" s="48" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="M12" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="N12" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="O12" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="P12" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q12" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="R12" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="S12" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="T12" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="U12" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="V12" s="52"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
         <v>215</v>
       </c>
@@ -4917,11 +5448,42 @@
       <c r="J13" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="K13" s="51">
+      <c r="K13" s="50">
         <v>20487</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="M13" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="N13" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="O13" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="P13" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q13" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="R13" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="S13" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="T13" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="U13" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="V13" s="52"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
         <v>197</v>
       </c>
@@ -4955,8 +5517,39 @@
       <c r="K14" s="9" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="48">
+        <v>5465478</v>
+      </c>
+      <c r="M14" s="48">
+        <v>5465478</v>
+      </c>
+      <c r="N14" s="48">
+        <v>5465478</v>
+      </c>
+      <c r="O14" s="48">
+        <v>5465478</v>
+      </c>
+      <c r="P14" s="48">
+        <v>5465478</v>
+      </c>
+      <c r="Q14" s="48">
+        <v>5465478</v>
+      </c>
+      <c r="R14" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="S14" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="T14" s="48">
+        <v>5465478</v>
+      </c>
+      <c r="U14" s="48">
+        <v>5465478</v>
+      </c>
+      <c r="V14" s="52"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
         <v>198</v>
       </c>
@@ -4984,8 +5577,19 @@
         <v>232</v>
       </c>
       <c r="K15" s="48"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="52"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
         <v>199</v>
       </c>
@@ -5013,8 +5617,19 @@
         <v>233</v>
       </c>
       <c r="K16" s="48"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="52"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>200</v>
       </c>
@@ -5048,8 +5663,39 @@
       <c r="K17" s="48" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="M17" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="N17" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="O17" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="P17" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q17" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="R17" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="S17" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="T17" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="U17" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="V17" s="52"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
         <v>201</v>
       </c>
@@ -5080,27 +5726,58 @@
       <c r="J18" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="K18" s="52" t="s">
+      <c r="K18" s="51" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="M18" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="N18" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="O18" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="P18" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q18" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="R18" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="S18" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="T18" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="U18" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="V18" s="52"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
         <v>202</v>
       </c>
       <c r="B19" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="49" t="s">
         <v>253</v>
       </c>
       <c r="G19" s="49" t="s">
@@ -5109,17 +5786,48 @@
       <c r="H19" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="I19" s="50" t="s">
+      <c r="I19" s="49" t="s">
         <v>250</v>
       </c>
       <c r="J19" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="K19" s="50" t="s">
+      <c r="K19" s="49" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="81" t="s">
+        <v>291</v>
+      </c>
+      <c r="M19" s="81" t="s">
+        <v>291</v>
+      </c>
+      <c r="N19" s="81" t="s">
+        <v>291</v>
+      </c>
+      <c r="O19" s="81" t="s">
+        <v>291</v>
+      </c>
+      <c r="P19" s="81" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q19" s="81" t="s">
+        <v>291</v>
+      </c>
+      <c r="R19" s="81" t="s">
+        <v>291</v>
+      </c>
+      <c r="S19" s="81" t="s">
+        <v>291</v>
+      </c>
+      <c r="T19" s="81" t="s">
+        <v>291</v>
+      </c>
+      <c r="U19" s="48" t="s">
+        <v>293</v>
+      </c>
+      <c r="V19" s="52"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
         <v>203</v>
       </c>
@@ -5153,8 +5861,39 @@
       <c r="K20" s="48" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="M20" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="N20" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="O20" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="P20" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q20" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="R20" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="S20" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="T20" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="U20" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="V20" s="52"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
         <v>204</v>
       </c>
@@ -5188,8 +5927,39 @@
       <c r="K21" s="48" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="M21" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="N21" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="O21" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="P21" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q21" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="R21" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="S21" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="T21" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="U21" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="V21" s="52"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
         <v>205</v>
       </c>
@@ -5223,8 +5993,39 @@
       <c r="K22" s="48" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="M22" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="N22" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="O22" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="P22" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q22" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="R22" s="80" t="s">
+        <v>292</v>
+      </c>
+      <c r="S22" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="T22" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="U22" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="V22" s="52"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>206</v>
       </c>
@@ -5248,6 +6049,17 @@
       </c>
       <c r="J23" s="48"/>
       <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="52"/>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E55">
